--- a/data/fusion-dac-train.xlsx
+++ b/data/fusion-dac-train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.24.dac</t>
+          <t>Fusion--param1-00.09.dac</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.24</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.20.dac</t>
+          <t>Fusion--param1-00.11.dac</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.09.dac</t>
+          <t>Fusion--param1-00.19.dac</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.37.dac</t>
+          <t>Fusion--param1-00.20.dac</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.86.dac</t>
+          <t>Fusion--param1-00.24.dac</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.86</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.79.dac</t>
+          <t>Fusion--param1-00.25.dac</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.79</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.42.dac</t>
+          <t>Fusion--param1-00.27.dac</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.42</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.81.dac</t>
+          <t>Fusion--param1-00.33.dac</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.40.dac</t>
+          <t>Fusion--param1-00.34--segment_01. The End.dac</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,22 +597,352 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Fusion--param1-00.34--segment_03. All Gods With Me1.dac</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Fusion--param1-00.34--segment_04. Enter Rajasthan.dac</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fusion--param1-00.37.dac</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Fusion--param1-00.39.dac</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fusion--param1-00.40.dac</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Fusion--param1-00.41.dac</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fusion--param1-00.42.dac</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fusion--param1-00.45.dac</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fusion--param1-00.51.dac</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Fusion--param1-00.53.dac</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Fusion--param1-00.65.dac</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Fusion--param1-00.67.dac</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fusion--param1-00.76.dac</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fusion--param1-00.78.dac</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Fusion--param1-00.79.dac</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Fusion--param1-00.81.dac</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>Fusion--param1-00.82.dac</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Fusion</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>0.82</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Fusion--param1-00.86.dac</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Fusion--param1-00.91.dac</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fusion--param1-00.92--segment_09. The Chieftain.dac</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fusion--param1-00.92--segment_09. The Chieftain1.dac</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Fusion--param1-00.96--segment_03. All Gods With Me.dac</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fusion--param1-00.96--segment_06. The Ruins.dac</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.96</v>
       </c>
     </row>
   </sheetData>
